--- a/MasterFile.xlsx
+++ b/MasterFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">USER_ID</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">SpAboYhUbQaRROgU6JrrJ0djWsTQobVexiKHFDs9GdcpbsnrQ0iO5aysm9FuO4UDK1IOgkZ5amJFhUrT7l5KrlryHqHH5ktK4P4yXsQkhAKhNB9057ai1UebKcZlTax2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CxYvmK3CryGXBY9emG52Uiy2FggYASi8jrl9EUPbMgZLZkNqMLH1cpNZsYmEAqCadNXvEIL7MDTPhGrZQ2Xs4LprRQJZI27j4jxAtekCNxN17xY6l1akBTRsObEQFdK</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +496,8 @@
       <c r="A3" s="7" t="n">
         <v>1662486</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -504,6 +508,17 @@
       </c>
       <c r="N3" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>186020</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
